--- a/PRODUTOS/Frios/Frios - Banha.xlsx
+++ b/PRODUTOS/Frios/Frios - Banha.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,6 +477,11 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7dec268-2187-4e32-895d-baf603e45e2e.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891164007157</t>
         </is>
       </c>
     </row>
